--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>FirstName</t>
   </si>
@@ -197,7 +197,10 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Active</t>
+    <t>UserStatus</t>
+  </si>
+  <si>
+    <t>SaveOrCancel</t>
   </si>
   <si>
     <t>Selenium</t>
@@ -230,6 +233,9 @@
     <t>Hidden</t>
   </si>
   <si>
+    <t>Save</t>
+  </si>
+  <si>
     <t>Deleteaction</t>
   </si>
   <si>
@@ -247,7 +253,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -271,6 +277,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -292,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -336,8 +345,11 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -353,6 +365,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4871,79 +4889,83 @@
       <c r="O1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="18">
+      <c r="G2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="19">
         <v>44174.0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <v>44177.0</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>68</v>
+      <c r="J2" s="18" t="s">
+        <v>69</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="20">
         <v>0.375</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="21">
         <v>0.7083333333333334</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>69</v>
+      <c r="N2" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>70</v>
+      <c r="P2" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="Q2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3">
       <c r="H3" s="10"/>
@@ -10956,68 +10978,68 @@
         <v>21</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>61</v>
+      <c r="A2" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>72</v>
+      <c r="B2" s="18" t="s">
+        <v>74</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>73</v>
+      <c r="A3" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,6 +8,9 @@
     <sheet state="visible" name="Profile" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ShareSkill" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ManageListing" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ManageRequest" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Chat" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="SearchSkill" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>FirstName</t>
   </si>
@@ -248,7 +251,55 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Selenium with Java</t>
+    <t>Selenium with Csharp</t>
+  </si>
+  <si>
+    <t>ReceviedRequest</t>
+  </si>
+  <si>
+    <t>SearchName</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>kimi wang</t>
+  </si>
+  <si>
+    <t>I am interested on your skills</t>
+  </si>
+  <si>
+    <t>zorawar badhan</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>SearchSkill</t>
+  </si>
+  <si>
+    <t>SearchSkillCategory</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>SearchFilter</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>Programming $ Tech</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -287,7 +338,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +357,18 @@
         <bgColor rgb="FF3C78D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -313,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -390,6 +453,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -415,6 +486,18 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -4961,7 +5044,7 @@
         <v>0.375</v>
       </c>
       <c r="L2" s="22">
-        <v>0.7083333333333334</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="M2" s="19" t="s">
         <v>60</v>
@@ -10991,7 +11074,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.43"/>
+    <col customWidth="1" min="1" max="1" width="19.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11066,4 +11149,191 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.86"/>
+    <col customWidth="1" min="3" max="3" width="28.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>